--- a/xlsx/汇率_intext.xlsx
+++ b/xlsx/汇率_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>汇率</t>
   </si>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%83%E5%8D%87%E5%80%BC%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>日元升值蕭條</t>
+    <t>日元升值萧条</t>
   </si>
 </sst>
 </file>
@@ -581,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -607,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -636,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
